--- a/biology/Botanique/Jacobaea_incana/Jacobaea_incana.xlsx
+++ b/biology/Botanique/Jacobaea_incana/Jacobaea_incana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacobaea incana, le séneçon blanchâtre, est une espèce de plante à fleurs de la famille des Asteraceae. Elle a longtemps été appelée Senecio incanum.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le séneçon blanchâtre est une plante herbacée avec une tige courte, des feuilles minces velues au duvet gris blanc argenté.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il pousse jusqu'à plus de 2 700 mètres dans les Alpes.
 </t>
@@ -573,14 +589,51 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Jacobaea incana (L.) Veldkamp[1].
-L'espèce a été initialement classée dans le genre Senecio sous le basionyme Senecio incanus L.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : génépi jaune[2], séneçon blanchâtre[2],[3].
-Synonymes
-Son nom scientifique accepté fut longtemps Senecio incanum L. mais des travaux, notamment ceux de Pelser &amp; Meijden en 2005, tendent à prouver que cette espèce et d'autres font bien partie d'un genre, Jacobaea, distinct de Senecio.
-Ainsi, Jacobaea incana a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Jacobaea incana (L.) Veldkamp.
+L'espèce a été initialement classée dans le genre Senecio sous le basionyme Senecio incanus L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : génépi jaune, séneçon blanchâtre,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacobaea_incana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacobaea_incana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Son nom scientifique accepté fut longtemps Senecio incanum L. mais des travaux, notamment ceux de Pelser &amp; Meijden en 2005, tendent à prouver que cette espèce et d'autres font bien partie d'un genre, Jacobaea, distinct de Senecio.
+Ainsi, Jacobaea incana a pour synonymes :
 Madaractis incana (L.) Regel
 Senecio corymbosus Dalla Torre
 Senecio incanus f. parviflorus (All.) Hegi
@@ -593,9 +646,43 @@
 Senecio laggeri Sch.Bip.
 Senecio laggeri Sch.Bip. ex Nyman
 Senecio leucophyllus subsp. incanus (L.) Bonnier &amp; Layens
-Senecio parviflorus All.
-Sous-espèces
-Jacobaea incana subsp. incana (L.) Veldkamp, 2006 - le séneçon blancâtre
+Senecio parviflorus All.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jacobaea_incana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacobaea_incana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jacobaea incana subsp. incana (L.) Veldkamp, 2006 - le séneçon blancâtre
 Jacobaea incana subsp. carniolica (Willd.) B.Nord. &amp; Greuter - le séneçon de Carniole</t>
         </is>
       </c>
